--- a/EngenhariaDeSoftware/Trabalho1/Equivalencia.xlsx
+++ b/EngenhariaDeSoftware/Trabalho1/Equivalencia.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADM\Desktop\engenhariadesoftware\EngenhariaDeSoftware\Trabalho1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADM\engenhariadesoftware\EngenhariaDeSoftware\Trabalho1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -32,47 +32,65 @@
     <t>Caso</t>
   </si>
   <si>
-    <t>prova1 antes prova 2</t>
-  </si>
-  <si>
     <t>prova1 depois prova2</t>
-  </si>
-  <si>
-    <t>prova1 = prova 2</t>
   </si>
   <si>
     <t>prova1 faltando</t>
   </si>
   <si>
-    <t>prova1 invalida</t>
+    <t>prova1 mesmo dia prova 2</t>
   </si>
   <si>
-    <t>trabalho1 faltando</t>
+    <t>trabalho fora de ordem posição</t>
   </si>
   <si>
-    <t>trabalho1 antes da prova1</t>
+    <t>trabalho fora de ordem cronologica</t>
   </si>
   <si>
-    <t>trabalho1 depois da prova2</t>
+    <t>Prova</t>
   </si>
   <si>
-    <t>trabaho1 entre as duas provas</t>
+    <t>Trabalho</t>
   </si>
   <si>
-    <t>trabalho 1 depois do trabalho 2</t>
+    <t>-</t>
   </si>
   <si>
-    <t>trabalho 1 antes do trabalho 2</t>
+    <t>Quantidade aula valida</t>
   </si>
   <si>
-    <t xml:space="preserve">trabalho1 </t>
+    <t>Quantidade aula invalida</t>
+  </si>
+  <si>
+    <t>Quantidade trabalho valido</t>
+  </si>
+  <si>
+    <t>Quantidade trabalho invalido</t>
+  </si>
+  <si>
+    <t>qtde aula</t>
+  </si>
+  <si>
+    <t>qtde trabalho</t>
+  </si>
+  <si>
+    <t>prova1 valido</t>
+  </si>
+  <si>
+    <t>trabalho1 faltando (Invalido)</t>
+  </si>
+  <si>
+    <t>trabaho1 entre as duas provas (Valido)</t>
+  </si>
+  <si>
+    <t>trabalho não está entre provas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +98,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,8 +139,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,101 +431,1804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B14"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>IF(AND(D2=1,E2=7,F2=11,G2=12),"positivo","erro")</f>
+        <v>erro</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f t="shared" ref="I3:I66" si="0">IF(AND(D3=1,E3=7,F3=11,G3=12),"positivo","erro")</f>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F5" s="2">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>13</v>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>positivo</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46" s="2">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48" s="2">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" s="2">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50" s="2">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51" s="2">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55" s="2">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56" s="2">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63" s="2">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64" s="2">
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65" s="2">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66" s="2">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67" s="2">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="6" t="str">
+        <f t="shared" ref="I67:I81" si="1">IF(AND(D67=1,E67=7,F67=11,G67=12),"positivo","erro")</f>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68" s="2">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69" s="2">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70" s="2">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71" s="2">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>7</v>
+      </c>
+      <c r="F72" s="2">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
+      </c>
+      <c r="F73" s="2">
+        <v>11</v>
+      </c>
+      <c r="G73">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="F74" s="2">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75" s="2">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+      <c r="F76" s="2">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77" s="2">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>9</v>
+      </c>
+      <c r="F78" s="2">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>9</v>
+      </c>
+      <c r="F79" s="2">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>9</v>
+      </c>
+      <c r="F80" s="2">
+        <v>11</v>
+      </c>
+      <c r="G80">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
+      </c>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>9</v>
+      </c>
+      <c r="F81" s="2">
+        <v>11</v>
+      </c>
+      <c r="G81">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erro</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>